--- a/data/trans_camb/P62-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P62-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-8.54861310252616</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.487416213954818</v>
+        <v>2.487416213954807</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-20.78813460100766</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-35.57148094076237</v>
+        <v>-35.35355196195547</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-22.6019307813677</v>
+        <v>-21.08579183760239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.46376129348515</v>
+        <v>-17.33469469856493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-29.08134907971825</v>
+        <v>-28.30312142683132</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-21.7641982317158</v>
+        <v>-24.09681657906393</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.59213657687903</v>
+        <v>-9.12744169805681</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-30.82440536522319</v>
+        <v>-31.31616804689135</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-19.74948723534357</v>
+        <v>-18.8395828928997</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-11.55358570727942</v>
+        <v>-12.52462931080308</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-11.36371654760118</v>
+        <v>-10.64093978231726</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1534351011300006</v>
+        <v>1.187644194470844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.815724731365455</v>
+        <v>4.564421788442647</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.6077215230774644</v>
+        <v>-1.820729067603388</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.995759805958338</v>
+        <v>4.808568582237614</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.05798635250325</v>
+        <v>15.825408155046</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-10.64198197339742</v>
+        <v>-9.88789466231359</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.737446216817992</v>
+        <v>-0.788527701508691</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.429551034154292</v>
+        <v>4.897524283889418</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1835857443032426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05341850795609238</v>
+        <v>0.05341850795609213</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.3275221401123087</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4525816536091229</v>
+        <v>-0.4403558901020601</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2807529744035139</v>
+        <v>-0.2622354861607363</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2136184561988396</v>
+        <v>-0.2097790884157412</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5352354864622604</v>
+        <v>-0.529952141513346</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4076263478227158</v>
+        <v>-0.4566365555920679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1923541458258797</v>
+        <v>-0.1645117052934809</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4531442990205072</v>
+        <v>-0.4595180740661327</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2880183615100045</v>
+        <v>-0.2824588203100203</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.169788705255686</v>
+        <v>-0.1808847258021213</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1690045499535927</v>
+        <v>-0.1469841675670186</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.003603061953539918</v>
+        <v>0.01471203951800213</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05188498009006735</v>
+        <v>0.06021390914875936</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.001240166147993184</v>
+        <v>-0.02815487648525643</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1730244209637624</v>
+        <v>0.1337270768101482</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4058063516266848</v>
+        <v>0.4131642538279003</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.190287454443651</v>
+        <v>-0.168784084195695</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.02958286720743334</v>
+        <v>-0.0140623038324589</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.09567603380362888</v>
+        <v>0.08451764848220013</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.534402690728482</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>28.58101881912829</v>
+        <v>28.5810188191283</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-3.695153540797624</v>
@@ -878,7 +878,7 @@
         <v>-6.806544701852885</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>16.12736726538708</v>
+        <v>16.12736726538709</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-32.58447575736973</v>
+        <v>-32.16157242651198</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-32.515833653523</v>
+        <v>-32.62375849663506</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.67461581607575</v>
+        <v>-18.99613970953238</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.829479170353053</v>
+        <v>-6.375030615180412</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.498958621540071</v>
+        <v>-6.657488978427982</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.86924780406837</v>
+        <v>18.92392332458881</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-12.5889865836645</v>
+        <v>-12.37604477019541</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-15.59800947935798</v>
+        <v>-15.37969134222359</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.800833943085599</v>
+        <v>7.768114724164038</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.01389257274614</v>
+        <v>-9.114496341140088</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-9.754208165764584</v>
+        <v>-9.185404337760151</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.475439735666755</v>
+        <v>2.954091498004225</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.69165897338716</v>
+        <v>13.13188727076648</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.61448173340646</v>
+        <v>11.54406819173971</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>37.49991803073448</v>
+        <v>38.07973244639638</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.795545393445277</v>
+        <v>4.935823917879687</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.786213141963887</v>
+        <v>2.239003896896724</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>24.18770331213418</v>
+        <v>24.96316388098622</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1353241175919869</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.526079957903921</v>
+        <v>1.526079957903922</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.0835124124502383</v>
@@ -983,7 +983,7 @@
         <v>-0.1538314882524266</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3644869778571513</v>
+        <v>0.3644869778571515</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3833828087888658</v>
+        <v>-0.3717482988211254</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3877864252539205</v>
+        <v>-0.3848006131172805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2145679172999867</v>
+        <v>-0.2214344115898394</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3201558405599176</v>
+        <v>-0.2869752828673861</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3149648096540955</v>
+        <v>-0.2832140076196368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7024715862912265</v>
+        <v>0.74987441862518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2549939345151699</v>
+        <v>-0.2515852115083264</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3160684357715665</v>
+        <v>-0.3109144608575208</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1601932235764542</v>
+        <v>0.1534047835218864</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1353295723076362</v>
+        <v>-0.1180315736648081</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1338485683711404</v>
+        <v>-0.1265843279122238</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03211706964619732</v>
+        <v>0.04100860124768973</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9548671274621576</v>
+        <v>0.9630853048670097</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8916338779792167</v>
+        <v>0.8866520908380325</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.790937106433987</v>
+        <v>2.862337416885155</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1196961836360442</v>
+        <v>0.1299743628003034</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04551362275138875</v>
+        <v>0.05523842351256103</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6148204035314186</v>
+        <v>0.6497307323420204</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-15.90745697138107</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.794711268625937</v>
+        <v>-1.794711268625948</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>21.03705875915741</v>
@@ -1092,7 +1092,7 @@
         <v>4.198428970493784</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>14.10162303758464</v>
+        <v>14.10162303758467</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-30.36122214174886</v>
+        <v>-28.89815815197961</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-24.93924907275687</v>
+        <v>-24.81220991041165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.91497675804528</v>
+        <v>-11.12783427371083</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.229022913994141</v>
+        <v>10.31851098322857</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.62159746403408</v>
+        <v>18.74768626681996</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>23.22804252729394</v>
+        <v>23.37286321067355</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-9.461510336036458</v>
+        <v>-9.658697004907706</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.169144356776843</v>
+        <v>-3.446919137104628</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.966697747415473</v>
+        <v>7.040548973394715</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-11.13939151712961</v>
+        <v>-11.26953734815465</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.38633080571234</v>
+        <v>-6.344441749281845</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.368042219337335</v>
+        <v>7.400097342375314</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31.283531379311</v>
+        <v>32.37670988944581</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>42.35751489313872</v>
+        <v>44.08391954139686</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>44.85356510806152</v>
+        <v>45.3811297732173</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.481842103861765</v>
+        <v>5.29686463945513</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.09739738277681</v>
+        <v>11.82308474557632</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.53626014059056</v>
+        <v>22.01310810631987</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2155864325575886</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.02432289463803453</v>
+        <v>-0.02432289463803469</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.081755361758633</v>
@@ -1197,7 +1197,7 @@
         <v>0.08107659938678505</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2723189197094461</v>
+        <v>0.2723189197094465</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.386491345924325</v>
+        <v>-0.3724055577910611</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3208952862927706</v>
+        <v>-0.3123789853048087</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1404271139196681</v>
+        <v>-0.1407018382112268</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.324788132388052</v>
+        <v>0.3600964002151128</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6742766641607557</v>
+        <v>0.6631682342961484</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8804950412518339</v>
+        <v>0.8585714390440592</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1679049385264498</v>
+        <v>-0.1738244799599787</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0584236552269033</v>
+        <v>-0.05997310680213391</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1055427074016836</v>
+        <v>0.1274011163277612</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1656716010244829</v>
+        <v>-0.1678492459105923</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.09751628645530051</v>
+        <v>-0.09537308838214879</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1221994808223091</v>
+        <v>0.1076092927673564</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.161257570916021</v>
+        <v>2.340476797863316</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.915157707630407</v>
+        <v>2.94647691720724</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.292894075630608</v>
+        <v>3.485496184813307</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1212186952127179</v>
+        <v>0.1142107711285849</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.249435955078964</v>
+        <v>0.2561502525572782</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4561432833413512</v>
+        <v>0.471875833251251</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-16.19915198815297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.710109109353956</v>
+        <v>-5.710109109353967</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.523048534547784</v>
@@ -1306,7 +1306,7 @@
         <v>-6.770640443014086</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.657903287411199</v>
+        <v>0.6579032874112101</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-26.27705733243679</v>
+        <v>-25.70428699061902</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-21.90693854906981</v>
+        <v>-21.67133296902971</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.82849772213115</v>
+        <v>-12.0773392326959</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.632084491993805</v>
+        <v>-8.117862205490113</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.481174809160184</v>
+        <v>-2.010017999609941</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.805513402699114</v>
+        <v>2.728774278838833</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-15.45325893866715</v>
+        <v>-15.86181213340728</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-11.17006277652888</v>
+        <v>-11.09124774991146</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.679519656042963</v>
+        <v>-4.004666274078795</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-14.94987446917924</v>
+        <v>-14.24741514797162</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-10.96005464624609</v>
+        <v>-9.583167866037893</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4267451354374339</v>
+        <v>0.4533179280538323</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.838729650701007</v>
+        <v>3.418081176661852</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.69387564263073</v>
+        <v>10.32147376766052</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.50332556166483</v>
+        <v>14.35026671451535</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-6.349610622613174</v>
+        <v>-6.687224964686861</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.024868289520696</v>
+        <v>-1.647785912424316</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.346961942599552</v>
+        <v>5.829775373597074</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.235515151720021</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.08301775390532075</v>
+        <v>-0.08301775390532092</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.09050120283560231</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1327500317435741</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.01289932363461302</v>
+        <v>0.01289932363461324</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3666675767100409</v>
+        <v>-0.3616082146271777</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.30842168191175</v>
+        <v>-0.3054492161943574</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1658458121352069</v>
+        <v>-0.1696162837933622</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2782497158846569</v>
+        <v>-0.2685529050829819</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08361644577929078</v>
+        <v>-0.06462118960650867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08949994441398103</v>
+        <v>0.08072977534638405</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2928300037705732</v>
+        <v>-0.2950093578677743</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2102380480717234</v>
+        <v>-0.2080986445043673</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06913520687761091</v>
+        <v>-0.07454530580748721</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2236865804683224</v>
+        <v>-0.2170841408562392</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1651359302827346</v>
+        <v>-0.1481478963719245</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.006234942877978263</v>
+        <v>0.0069641153555503</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1200925768983145</v>
+        <v>0.1359298615393166</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4293921313105767</v>
+        <v>0.421930116294399</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6024815520149592</v>
+        <v>0.5844777968476499</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1343351267201048</v>
+        <v>-0.1415804402957136</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.04087649467017242</v>
+        <v>-0.03364530522073967</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1099816146288608</v>
+        <v>0.1180088179741067</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-5.220752598240103</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7.840195110777137</v>
+        <v>7.840195110777149</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>10.79071482543908</v>
@@ -1520,7 +1520,7 @@
         <v>6.362620033598432</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>15.38619655957513</v>
+        <v>15.38619655957514</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-16.81549825044223</v>
+        <v>-16.46128283765201</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.47719253853577</v>
+        <v>-14.27658066854009</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.271122613014505</v>
+        <v>-1.717685540392743</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.973740581512319</v>
+        <v>4.331463771408348</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.834635179584836</v>
+        <v>3.959596723556217</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>11.68303727690216</v>
+        <v>12.75777283882792</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.05825203777984445</v>
+        <v>-0.3929178366202594</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.860786238753303</v>
+        <v>1.457975276623235</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.25948112889127</v>
+        <v>9.955766168467292</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.719942515151748</v>
+        <v>1.806966923987193</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.644117756044923</v>
+        <v>3.980857001824529</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.19563486493374</v>
+        <v>18.11472188561164</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.34555557843116</v>
+        <v>16.75403652979438</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.00442443072784</v>
+        <v>17.19785364480008</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>24.66777176515508</v>
+        <v>24.57772201698601</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.14769524842184</v>
+        <v>10.56130909657434</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.14466650618717</v>
+        <v>11.28123628250505</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.13258559091171</v>
+        <v>20.63611475538249</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1027656029004534</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1543268642317582</v>
+        <v>0.1543268642317584</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3791369004191465</v>
@@ -1616,7 +1616,7 @@
         <v>0.3658422902910615</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.650805036494353</v>
+        <v>0.6508050364943527</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1490676182912302</v>
@@ -1625,7 +1625,7 @@
         <v>0.179332022740566</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4336637637863212</v>
+        <v>0.4336637637863215</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2957375040929074</v>
+        <v>-0.2956113311535812</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2545909497862506</v>
+        <v>-0.2528383810790751</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03942945493654573</v>
+        <v>-0.03043288075685198</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1234403956627495</v>
+        <v>0.1324988430396378</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1164824082526526</v>
+        <v>0.1209305508741705</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3653482909852337</v>
+        <v>0.3849567153343487</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0002971058903743187</v>
+        <v>-0.01005373286278724</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02676326477089812</v>
+        <v>0.03547134597363281</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2651148392567657</v>
+        <v>0.2599779698609116</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.03565943600681723</v>
+        <v>0.03961521794976069</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08508409796387023</v>
+        <v>0.08633616279558294</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3862642637006367</v>
+        <v>0.4200620732708251</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6643525473569878</v>
+        <v>0.668829803189088</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7096226001358431</v>
+        <v>0.6925737635364828</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.030107731983293</v>
+        <v>1.012754335777961</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3176535156296294</v>
+        <v>0.3309419326762145</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3509891016877372</v>
+        <v>0.3488654696696424</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6218103248884513</v>
+        <v>0.6496058975548096</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.557557051888436</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.284674418850644</v>
+        <v>3.284674418850639</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.569414706597506</v>
@@ -1734,7 +1734,7 @@
         <v>0.8794450081444499</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2.278228837338306</v>
+        <v>2.278228837338308</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.8966370199219023</v>
+        <v>-0.9200986860066614</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.312239621093569</v>
+        <v>-3.438876591405887</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.627062555285843</v>
+        <v>-2.160474885583416</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.8850860188966916</v>
+        <v>-1.221787156122278</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.019338004493428</v>
+        <v>-2.187441117694238</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.2304867464382258</v>
+        <v>-0.398598487199799</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.4094140410039467</v>
+        <v>-0.4166303784665946</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.966215491464109</v>
+        <v>-2.235332380396769</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.5614963741779629</v>
+        <v>-0.4861119571689591</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.94524963494115</v>
+        <v>6.91691803350004</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.417662108842092</v>
+        <v>2.39488385473167</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.227701040511289</v>
+        <v>4.910042421368782</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.349991734315438</v>
+        <v>6.073554143020696</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.139256524094153</v>
+        <v>5.17528716027301</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.90635466143498</v>
+        <v>6.759366544779977</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.387898101362483</v>
+        <v>5.749150970817494</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.979534690123731</v>
+        <v>3.954872419296116</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.08659478192236</v>
+        <v>5.417581814861947</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.07063283149948574</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1489549641061667</v>
+        <v>0.1489549641061664</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1388639406743815</v>
@@ -1839,7 +1839,7 @@
         <v>0.04752957906085585</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1231268091127843</v>
+        <v>0.1231268091127844</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2905237637000276</v>
+        <v>-0.2482139328025701</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.717513785247971</v>
+        <v>-0.7256105099044672</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5510487175868699</v>
+        <v>-0.4796652275054593</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.03752740792746894</v>
+        <v>-0.0505672017555249</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.084361856748039</v>
+        <v>-0.09136231833560897</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.009769011465189926</v>
+        <v>-0.01741355920566664</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.01836063860503084</v>
+        <v>-0.02357826011209341</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1020512836025245</v>
+        <v>-0.1116950521612152</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.02621337815453144</v>
+        <v>-0.02556689020218149</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.301937431142458</v>
+        <v>3.270649971784153</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.234359893040335</v>
+        <v>1.260725002723073</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.01440491137663</v>
+        <v>2.564676846290588</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3023691764990564</v>
+        <v>0.3031530303471117</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2483723945002478</v>
+        <v>0.2542379527830899</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.339778640937115</v>
+        <v>0.3233181792854513</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3153243364531282</v>
+        <v>0.3405881594263112</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2329709917512489</v>
+        <v>0.2340009434466722</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3011121258471224</v>
+        <v>0.3139083756015542</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>5.519266781309618</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>12.4745358309915</v>
+        <v>12.47453583099149</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.03734800709783714</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-14.04244091098352</v>
+        <v>-14.16496359145603</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-11.66403501342696</v>
+        <v>-11.44375165511677</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.591174768922921</v>
+        <v>-2.080117498785158</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.913020901125031</v>
+        <v>1.501982909929164</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.800844194668847</v>
+        <v>2.931291776630784</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>10.16210823240692</v>
+        <v>9.902264580856349</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.095809390208272</v>
+        <v>-2.221171291998672</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.4548247214259875</v>
+        <v>-0.3784143138261709</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>7.229305374899202</v>
+        <v>7.344722976268744</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-7.301887880643488</v>
+        <v>-7.243027525783793</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-4.795486012288987</v>
+        <v>-4.677113474202125</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.466679253024073</v>
+        <v>5.309999800405764</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.033816044195854</v>
+        <v>6.868864136882566</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.147322148072723</v>
+        <v>7.944690503085165</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>15.07142024756226</v>
+        <v>15.0969268469105</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.246041148190377</v>
+        <v>2.106838723980939</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.983030502430224</v>
+        <v>3.699240504751272</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>11.74115249571803</v>
+        <v>11.72431984666002</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.2239159651084788</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5060903631866071</v>
+        <v>0.5060903631866068</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.001049017930746875</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2506488783082649</v>
+        <v>-0.2499458412244157</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2062497174134034</v>
+        <v>-0.2020366471788563</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.0471003115941025</v>
+        <v>-0.03652792132472731</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.07216380731451991</v>
+        <v>0.05994626909984123</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1066822718196222</v>
+        <v>0.1120904469602507</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3927011298657835</v>
+        <v>0.3722932658960696</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.05728531830536529</v>
+        <v>-0.06035774150668344</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01232112293315864</v>
+        <v>-0.01003040521050373</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1951924572401594</v>
+        <v>0.1967376066284371</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1398129329802478</v>
+        <v>-0.1383922565952606</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.09181241309804984</v>
+        <v>-0.08882376275415109</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1024807361111945</v>
+        <v>0.1011007593174814</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3011355659261233</v>
+        <v>0.2913398445576762</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3475721574394067</v>
+        <v>0.3390390667072348</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.649311351158818</v>
+        <v>0.6438511397915249</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.06512717101971105</v>
+        <v>0.06078591818601723</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1159536129710961</v>
+        <v>0.1073132453890291</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3406795866065045</v>
+        <v>0.3404349633635729</v>
       </c>
     </row>
     <row r="46">
